--- a/8) Bytecoin Explorer/Scraped Data/1.xlsx
+++ b/8) Bytecoin Explorer/Scraped Data/1.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,12 +429,47 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
+          <t>Version</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
           <t>Timestamp</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Transactions</t>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Base Reward</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Transactions Fee</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Transactions Size</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Already Generated Transactions</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Already Generated Key Outputs</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Transaction Count</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Transaction Hashes</t>
         </is>
       </c>
     </row>
@@ -442,13 +477,36 @@
       <c r="A2" t="n">
         <v>1</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="inlineStr">
         <is>
           <t>2012-07-04 05:00:00 UTC</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
+        <v>703684.75</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>344</v>
+      </c>
+      <c r="G2" t="n">
+        <v>2</v>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+      <c r="I2" t="n">
         <v>1</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>9afeb29a9f3bd0d84c3d0081c47138c3a1cadd932215b59b146444ba6914e551</t>
+        </is>
       </c>
     </row>
   </sheetData>
